--- a/2352/25235_36346/2355_34523_2352/条件输入数据表.xlsx
+++ b/2352/25235_36346/2355_34523_2352/条件输入数据表.xlsx
@@ -1881,8 +1881,8 @@
   <mergeCells count="4">
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
